--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E1EEAC-7F36-4010-8CD9-05428CBE9B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>Ардаширова Амина Рифовна</t>
   </si>
@@ -179,24 +178,15 @@
     <t>ответ неверный в 3м номере (в 5 присутствует возведение в степень)</t>
   </si>
   <si>
-    <t>ответы неверные в 3м и 4м номерах</t>
-  </si>
-  <si>
     <t>ответы неверные в 3м и 4м номерах (5го номера нет) (-50% за списывание)</t>
   </si>
   <si>
     <t>ответ неверный в 3м номере, 2го нет совсем</t>
   </si>
   <si>
-    <t>все ответы мимо</t>
-  </si>
-  <si>
     <t>номера 2-4 имеют неверные ответы</t>
   </si>
   <si>
-    <t>номера 2-4 имеют неверные ответы, 5й номер - решение не принимается</t>
-  </si>
-  <si>
     <t>неявка</t>
   </si>
   <si>
@@ -207,12 +197,15 @@
   </si>
   <si>
     <t>Total score</t>
+  </si>
+  <si>
+    <t>переписаны верно все номера</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,7 +576,167 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -969,27 +1122,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K26"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="69.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1018,29 +1171,31 @@
         <v>33</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="20">
         <v>4</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="11">
+        <v>5</v>
+      </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -1048,11 +1203,11 @@
       <c r="I2" s="14"/>
       <c r="J2" s="10">
         <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+2.5*I2,0)</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K2" s="26">
         <f>IF(J2&gt;57.5/5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="25">
         <f>MAX(_xlfn.FLOOR.MATH((J2-5)/10),2)</f>
@@ -1062,7 +1217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1070,9 +1225,11 @@
         <v>5</v>
       </c>
       <c r="C3" s="21">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1080,21 +1237,21 @@
       <c r="I3" s="15"/>
       <c r="J3" s="10">
         <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+2.5*I3,0)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K3" s="26">
         <f t="shared" ref="K3:K26" si="1">IF(J3&gt;57.5/5,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="25">
         <f t="shared" ref="L3:L26" si="2">MAX(_xlfn.FLOOR.MATH((J3-5)/10),2)</f>
         <v>2</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1283,7 @@
       </c>
       <c r="M4" s="21"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1153,18 +1310,22 @@
         <v>2</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="12">
+        <v>-1</v>
+      </c>
       <c r="C6" s="21">
         <v>4</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1172,11 +1333,11 @@
       <c r="I6" s="15"/>
       <c r="J6" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K6" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="25">
         <f t="shared" si="2"/>
@@ -1186,7 +1347,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1194,10 +1355,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1206,21 +1367,21 @@
       <c r="I7" s="15"/>
       <c r="J7" s="10">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K7" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="25">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1247,20 +1408,22 @@
         <v>2</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="21">
         <v>3</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1268,21 +1431,21 @@
       <c r="I9" s="15"/>
       <c r="J9" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K9" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="25">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1293,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1302,11 +1465,11 @@
       <c r="I10" s="15"/>
       <c r="J10" s="10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K10" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="25">
         <f t="shared" si="2"/>
@@ -1316,17 +1479,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" s="21">
         <v>4</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1334,11 +1499,11 @@
       <c r="I11" s="15"/>
       <c r="J11" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K11" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="25">
         <f t="shared" si="2"/>
@@ -1348,11 +1513,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="12">
+        <v>4</v>
+      </c>
       <c r="C12" s="21">
         <v>1</v>
       </c>
@@ -1364,7 +1531,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K12" s="26">
         <f t="shared" si="1"/>
@@ -1375,10 +1542,10 @@
         <v>2</v>
       </c>
       <c r="M12" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1386,9 +1553,11 @@
         <v>5</v>
       </c>
       <c r="C13" s="21">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1396,21 +1565,21 @@
       <c r="I13" s="15"/>
       <c r="J13" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K13" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="25">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1420,7 +1589,9 @@
       <c r="C14" s="21">
         <v>4</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1442,7 +1613,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1453,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1462,7 +1633,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K15" s="26">
         <f t="shared" si="1"/>
@@ -1476,7 +1647,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1490,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1498,7 +1669,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="10">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K16" s="26">
         <f t="shared" si="1"/>
@@ -1512,7 +1683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1522,7 +1693,9 @@
       <c r="C17" s="21">
         <v>2</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1530,21 +1703,21 @@
       <c r="I17" s="15"/>
       <c r="J17" s="10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K17" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="25">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M17" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1554,7 +1727,9 @@
       <c r="C18" s="21">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1562,7 +1737,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="10">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K18" s="26">
         <f t="shared" si="1"/>
@@ -1574,17 +1749,19 @@
       </c>
       <c r="M18" s="21"/>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" s="22">
         <v>5</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1592,11 +1769,11 @@
       <c r="I19" s="15"/>
       <c r="J19" s="10">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K19" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="25">
         <f t="shared" si="2"/>
@@ -1604,7 +1781,7 @@
       </c>
       <c r="M19" s="21"/>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1614,7 +1791,9 @@
       <c r="C20" s="21">
         <v>4</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1622,7 +1801,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K20" s="26">
         <f t="shared" si="1"/>
@@ -1636,17 +1815,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" s="21">
         <v>4</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1654,11 +1835,11 @@
       <c r="I21" s="15"/>
       <c r="J21" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K21" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="25">
         <f t="shared" si="2"/>
@@ -1668,7 +1849,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1698,7 +1879,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1708,7 +1889,9 @@
       <c r="C23" s="21">
         <v>4</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1716,7 +1899,7 @@
       <c r="I23" s="15"/>
       <c r="J23" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K23" s="26">
         <f t="shared" si="1"/>
@@ -1730,7 +1913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1741,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1750,7 +1933,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K24" s="26">
         <f t="shared" si="1"/>
@@ -1764,7 +1947,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -1772,10 +1955,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1784,21 +1967,21 @@
       <c r="I25" s="15"/>
       <c r="J25" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K25" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="25">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M25" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1833,45 +2016,101 @@
       <c r="M26" s="23"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C26 M2:M26">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+  <conditionalFormatting sqref="C2:C26 M2 M4:M6 M8:M12 M26 M14:M24">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C26">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K26">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L26">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1880,20 +2119,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1901,7 +2140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1909,7 +2148,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1917,7 +2156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1925,7 +2164,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1933,7 +2172,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -1941,7 +2180,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1949,7 +2188,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1237,7 +1237,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="10">
         <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+2.5*I3,0)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K3" s="26">
         <f t="shared" ref="K3:K26" si="1">IF(J3&gt;57.5/5,1,0)</f>
@@ -1264,14 +1264,16 @@
       <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="15"/>
       <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K4" s="26">
         <f t="shared" si="1"/>
@@ -1287,11 +1289,15 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="12">
+        <v>-2</v>
+      </c>
       <c r="C5" s="21">
         <v>0</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>-1</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1360,14 +1366,16 @@
       <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="15"/>
       <c r="J7" s="10">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K7" s="26">
         <f t="shared" si="1"/>
@@ -1385,11 +1393,15 @@
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="12">
+        <v>-2</v>
+      </c>
       <c r="C8" s="21">
         <v>0</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>-1</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1458,14 +1470,16 @@
       <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="15"/>
       <c r="J10" s="10">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K10" s="26">
         <f t="shared" si="1"/>
@@ -1523,7 +1537,9 @@
       <c r="C12" s="21">
         <v>1</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1531,7 +1547,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K12" s="26">
         <f t="shared" si="1"/>
@@ -1556,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1565,7 +1581,7 @@
       <c r="I13" s="15"/>
       <c r="J13" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K13" s="26">
         <f t="shared" si="1"/>
@@ -1590,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1599,7 +1615,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K14" s="26">
         <f t="shared" si="1"/>
@@ -1664,12 +1680,16 @@
         <v>5</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
       <c r="I16" s="15"/>
       <c r="J16" s="10">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K16" s="26">
         <f t="shared" si="1"/>
@@ -1691,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
@@ -1703,7 +1723,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="10">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K17" s="26">
         <f t="shared" si="1"/>
@@ -1794,14 +1814,16 @@
       <c r="D20" s="1">
         <v>5</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="15"/>
       <c r="J20" s="10">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K20" s="26">
         <f t="shared" si="1"/>
@@ -1853,11 +1875,15 @@
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="12">
+        <v>3</v>
+      </c>
       <c r="C22" s="21">
         <v>4</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1">
+        <v>-1</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1865,7 +1891,7 @@
       <c r="I22" s="15"/>
       <c r="J22" s="10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K22" s="26">
         <f t="shared" si="1"/>
@@ -1892,14 +1918,16 @@
       <c r="D23" s="1">
         <v>5</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>5</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="15"/>
       <c r="J23" s="10">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K23" s="26">
         <f t="shared" si="1"/>
@@ -1995,7 +2023,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -2003,7 +2031,7 @@
       <c r="I26" s="16"/>
       <c r="J26" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K26" s="26">
         <f t="shared" si="1"/>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>Ардаширова Амина Рифовна</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>переписаны верно все номера</t>
+  </si>
+  <si>
+    <t>Примечания к кр-2</t>
   </si>
 </sst>
 </file>
@@ -231,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -536,11 +539,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -572,6 +666,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1123,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1269,7 @@
     <col min="13" max="13" width="69.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1182,8 +1309,16 @@
       <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1213,11 +1348,17 @@
         <f>MAX(_xlfn.FLOOR.MATH((J2-5)/10),2)</f>
         <v>2</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="34"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1247,11 +1388,17 @@
         <f t="shared" ref="L3:L26" si="2">MAX(_xlfn.FLOOR.MATH((J3-5)/10),2)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="35"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="36"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1267,13 +1414,15 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="15"/>
       <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K4" s="26">
         <f t="shared" si="1"/>
@@ -1283,9 +1432,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M4" s="21"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="29"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="36"/>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1315,11 +1470,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="29" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="35"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="36"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1349,11 +1510,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="35"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="36"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1385,11 +1552,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="35"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="36"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1419,11 +1592,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="29" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="35"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="36"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1453,11 +1632,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="35"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="36"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1473,13 +1658,15 @@
       <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="15"/>
       <c r="J10" s="10">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K10" s="26">
         <f t="shared" si="1"/>
@@ -1489,11 +1676,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="35"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="36"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1523,11 +1716,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="29" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="35"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="36"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1557,11 +1756,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="29" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="35"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="36"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1591,11 +1796,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="35"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="36"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1609,13 +1820,15 @@
         <v>5</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="15"/>
       <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K14" s="26">
         <f t="shared" si="1"/>
@@ -1625,11 +1838,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="29" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="35"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="36"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1642,14 +1861,18 @@
       <c r="D15" s="1">
         <v>5</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="15"/>
       <c r="J15" s="10">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K15" s="26">
         <f t="shared" si="1"/>
@@ -1659,11 +1882,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="35"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="36"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +1908,9 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
       <c r="G16" s="1">
         <v>5</v>
       </c>
@@ -1689,7 +1920,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="10">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="K16" s="26">
         <f t="shared" si="1"/>
@@ -1697,13 +1928,19 @@
       </c>
       <c r="L16" s="25">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="29" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="35"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="36"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1733,11 +1970,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="35"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="36"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1751,13 +1994,15 @@
         <v>5</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="15"/>
       <c r="J18" s="10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K18" s="26">
         <f t="shared" si="1"/>
@@ -1767,9 +2012,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="29"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="36"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1799,9 +2050,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="29"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="36"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1817,13 +2074,15 @@
       <c r="E20" s="1">
         <v>5</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="15"/>
       <c r="J20" s="10">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K20" s="26">
         <f t="shared" si="1"/>
@@ -1833,11 +2092,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M20" s="29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="35"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="36"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -1851,13 +2116,15 @@
         <v>5</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="15"/>
       <c r="J21" s="10">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K21" s="26">
         <f t="shared" si="1"/>
@@ -1867,11 +2134,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M21" s="29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="35"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="36"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -1901,11 +2174,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="29" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="35"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="36"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -1937,11 +2216,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="M23" s="29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="35"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="36"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -1955,13 +2240,15 @@
         <v>5</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1">
+        <v>5</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="15"/>
       <c r="J24" s="10">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K24" s="26">
         <f t="shared" si="1"/>
@@ -1971,11 +2258,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="M24" s="29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="35"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="36"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -2005,11 +2298,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="35"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="36"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -2041,9 +2340,43 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M26" s="23"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="39"/>
     </row>
   </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N6:S6"/>
+  </mergeCells>
   <conditionalFormatting sqref="C2:C26 M2 M4:M6 M8:M12 M26 M14:M24">
     <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>2</formula>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -666,25 +666,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -697,6 +685,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,14 +1309,14 @@
       <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1348,15 +1348,15 @@
         <f>MAX(_xlfn.FLOOR.MATH((J2-5)/10),2)</f>
         <v>2</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="34"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1388,15 +1388,15 @@
         <f t="shared" ref="L3:L26" si="2">MAX(_xlfn.FLOOR.MATH((J3-5)/10),2)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="36"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="32"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1432,13 +1432,13 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="36"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32"/>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1470,15 +1470,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="36"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="32"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1510,15 +1510,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="36"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="32"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1552,15 +1552,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="36"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="32"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1592,15 +1592,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="36"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="32"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1632,15 +1632,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="36"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="32"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1676,15 +1676,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="36"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1716,15 +1716,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M11" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="35"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="36"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="32"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1756,15 +1756,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M12" s="29" t="s">
+      <c r="M12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="36"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1796,15 +1796,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="35"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="36"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="32"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -1838,15 +1838,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="35"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="36"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1862,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1">
         <v>5</v>
@@ -1872,7 +1872,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="10">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K15" s="26">
         <f t="shared" si="1"/>
@@ -1882,15 +1882,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="36"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="32"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -1930,15 +1930,15 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="36"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1970,15 +1970,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M17" s="29" t="s">
+      <c r="M17" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="35"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="36"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="32"/>
     </row>
     <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -2012,13 +2012,13 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="36"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -2050,13 +2050,13 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="36"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="32"/>
     </row>
     <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -2092,15 +2092,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="35"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="36"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -2134,15 +2134,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M21" s="29" t="s">
+      <c r="M21" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="36"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="32"/>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -2174,15 +2174,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="M22" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N22" s="35"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="36"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -2216,15 +2216,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M23" s="29" t="s">
+      <c r="M23" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="35"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="36"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="32"/>
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -2258,15 +2258,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M24" s="29" t="s">
+      <c r="M24" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="35"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="36"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="32"/>
     </row>
     <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -2298,15 +2298,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M25" s="29" t="s">
+      <c r="M25" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N25" s="35"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="36"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="32"/>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -2340,16 +2340,34 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M26" s="30"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="39"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N7:S7"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="N11:S11"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="N13:S13"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N17:S17"/>
     <mergeCell ref="N25:S25"/>
     <mergeCell ref="N26:S26"/>
     <mergeCell ref="N19:S19"/>
@@ -2358,24 +2376,6 @@
     <mergeCell ref="N22:S22"/>
     <mergeCell ref="N23:S23"/>
     <mergeCell ref="N24:S24"/>
-    <mergeCell ref="N13:S13"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N10:S10"/>
-    <mergeCell ref="N11:S11"/>
-    <mergeCell ref="N12:S12"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="N6:S6"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C26 M2 M4:M6 M8:M12 M26 M14:M24">
     <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239D4A45-3F89-46E4-9035-DD28F40CD4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -208,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,13 +227,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -634,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -669,6 +676,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,6 +704,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -703,7 +729,127 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1249,27 +1395,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="69.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1309,16 +1455,16 @@
       <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1332,33 +1478,35 @@
         <v>5</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="11">
+        <v>3</v>
+      </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="14"/>
       <c r="J2" s="10">
         <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+2.5*I2,0)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K2" s="26">
         <f>IF(J2&gt;57.5/5,1,0)</f>
         <v>1</v>
       </c>
       <c r="L2" s="25">
-        <f>MAX(_xlfn.FLOOR.MATH((J2-5)/10),2)</f>
+        <f>MAX(_xlfn.FLOOR.MATH((J2-7.5)/10),2)</f>
         <v>2</v>
       </c>
       <c r="M2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="50"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="52"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1371,34 +1519,38 @@
       <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="15"/>
       <c r="J3" s="10">
         <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+2.5*I3,0)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K3" s="26">
         <f t="shared" ref="K3:K26" si="1">IF(J3&gt;57.5/5,1,0)</f>
         <v>1</v>
       </c>
       <c r="L3" s="25">
-        <f t="shared" ref="L3:L26" si="2">MAX(_xlfn.FLOOR.MATH((J3-5)/10),2)</f>
+        <f t="shared" ref="L3:L26" si="2">MAX(_xlfn.FLOOR.MATH((J3-7.5)/10),2)</f>
         <v>2</v>
       </c>
       <c r="M3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="32"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="42"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1433,54 +1585,56 @@
         <v>2</v>
       </c>
       <c r="M4" s="28"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="N4" s="40"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="42"/>
+    </row>
+    <row r="5" spans="1:19" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="31">
+        <v>-3</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33">
         <v>-2</v>
       </c>
-      <c r="C5" s="21">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="10">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="37">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="32"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="48"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1494,7 +1648,9 @@
         <v>5</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="15"/>
@@ -1513,14 +1669,14 @@
       <c r="M6" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="32"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="40"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="42"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1536,7 +1692,9 @@
       <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="15"/>
@@ -1555,54 +1713,58 @@
       <c r="M7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="32"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="N7" s="40"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="42"/>
+    </row>
+    <row r="8" spans="1:19" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="31">
+        <v>-3</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0</v>
+      </c>
+      <c r="D8" s="33">
         <v>-2</v>
       </c>
-      <c r="C8" s="21">
+      <c r="E8" s="33">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="10">
+      <c r="F8" s="33">
+        <v>0</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="37">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="32"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="46"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="48"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1616,13 +1778,15 @@
         <v>5</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="15"/>
       <c r="J9" s="10">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K9" s="26">
         <f t="shared" si="1"/>
@@ -1635,14 +1799,14 @@
       <c r="M9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="32"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="40"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="42"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1679,14 +1843,14 @@
       <c r="M10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="30"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="32"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="40"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="42"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1699,14 +1863,18 @@
       <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="15"/>
       <c r="J11" s="10">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K11" s="26">
         <f t="shared" si="1"/>
@@ -1719,14 +1887,14 @@
       <c r="M11" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="32"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="40"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="42"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1740,17 +1908,19 @@
         <v>4</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="15"/>
       <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K12" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="25">
         <f t="shared" si="2"/>
@@ -1759,14 +1929,14 @@
       <c r="M12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="30"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="32"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="40"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="42"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1780,7 +1950,9 @@
         <v>5</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="15"/>
@@ -1799,14 +1971,14 @@
       <c r="M13" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="32"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="40"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="42"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1819,7 +1991,9 @@
       <c r="D14" s="1">
         <v>5</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>-1</v>
+      </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
@@ -1828,7 +2002,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="26">
         <f t="shared" si="1"/>
@@ -1841,14 +2015,14 @@
       <c r="M14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="30"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="32"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="40"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="42"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1885,14 +2059,14 @@
       <c r="M15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="30"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="32"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="40"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="42"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1927,20 +2101,20 @@
         <v>1</v>
       </c>
       <c r="L16" s="25">
-        <f t="shared" si="2"/>
+        <f>MAX(_xlfn.FLOOR.MATH((J16-5)/10),2)</f>
         <v>3</v>
       </c>
       <c r="M16" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="30"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="32"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="40"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="42"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1954,13 +2128,15 @@
         <v>5</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="15"/>
       <c r="J17" s="10">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K17" s="26">
         <f t="shared" si="1"/>
@@ -1973,14 +2149,14 @@
       <c r="M17" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="32"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="40"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="42"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2013,14 +2189,14 @@
         <v>2</v>
       </c>
       <c r="M18" s="28"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="32"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="40"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="42"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -2034,13 +2210,15 @@
         <v>5</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="15"/>
       <c r="J19" s="10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K19" s="26">
         <f t="shared" si="1"/>
@@ -2051,14 +2229,14 @@
         <v>2</v>
       </c>
       <c r="M19" s="28"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="32"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="40"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="42"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -2095,14 +2273,14 @@
       <c r="M20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="32"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="40"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="42"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2137,14 +2315,14 @@
       <c r="M21" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="32"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="40"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="42"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -2158,17 +2336,19 @@
         <v>-1</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="15"/>
       <c r="J22" s="10">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K22" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="25">
         <f t="shared" si="2"/>
@@ -2177,14 +2357,14 @@
       <c r="M22" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N22" s="30"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="32"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="40"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="42"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -2200,13 +2380,15 @@
       <c r="E23" s="1">
         <v>5</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="15"/>
       <c r="J23" s="10">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K23" s="26">
         <f t="shared" si="1"/>
@@ -2219,14 +2401,14 @@
       <c r="M23" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="30"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="32"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="40"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="42"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -2261,14 +2443,14 @@
       <c r="M24" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="30"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="32"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="40"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="42"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -2282,13 +2464,15 @@
         <v>5</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="15"/>
       <c r="J25" s="10">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K25" s="26">
         <f t="shared" si="1"/>
@@ -2301,14 +2485,14 @@
       <c r="M25" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N25" s="30"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="32"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="40"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="42"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -2324,7 +2508,9 @@
       <c r="E26" s="13">
         <v>5</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="16"/>
@@ -2341,12 +2527,12 @@
         <v>2</v>
       </c>
       <c r="M26" s="29"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="35"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -2377,48 +2563,90 @@
     <mergeCell ref="N23:S23"/>
     <mergeCell ref="N24:S24"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:C26 M2 M4:M6 M8:M12 M26 M14:M24">
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+  <conditionalFormatting sqref="C2:C7 M2 M4:M6 M8:M12 M26 M14:M24 C9:C26">
+    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C26">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+  <conditionalFormatting sqref="C2:C7 C9:C26">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K26">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L26">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -2432,45 +2660,49 @@
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+  <conditionalFormatting sqref="F2:F7 F9:F26">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M25">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2480,20 +2712,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2501,7 +2733,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2509,7 +2741,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2517,7 +2749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -2525,7 +2757,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -2533,7 +2765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -2541,7 +2773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2549,7 +2781,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239D4A45-3F89-46E4-9035-DD28F40CD4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>Ардаширова Амина Рифовна</t>
   </si>
@@ -204,12 +203,18 @@
   </si>
   <si>
     <t>Примечания к кр-2</t>
+  </si>
+  <si>
+    <t>пропуск по уважительной причине (военкомат)</t>
+  </si>
+  <si>
+    <t>деление на 0 не обработано</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,13 +700,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -713,16 +721,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1395,27 +1400,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="69.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1455,16 +1460,16 @@
       <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1499,14 +1504,14 @@
       <c r="M2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="52"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="46"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
@@ -1530,7 +1535,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="10">
         <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+2.5*I3,0)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K3" s="26">
         <f t="shared" ref="K3:K26" si="1">IF(J3&gt;57.5/5,1,0)</f>
@@ -1550,7 +1555,7 @@
       <c r="R3" s="41"/>
       <c r="S3" s="42"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1567,14 +1572,16 @@
         <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="15"/>
       <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K4" s="26">
         <f t="shared" si="1"/>
@@ -1585,14 +1592,16 @@
         <v>2</v>
       </c>
       <c r="M4" s="28"/>
-      <c r="N4" s="40"/>
+      <c r="N4" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="O4" s="41"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="41"/>
       <c r="S4" s="42"/>
     </row>
-    <row r="5" spans="1:19" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
@@ -1627,14 +1636,14 @@
       <c r="M5" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="48"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="49"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1676,7 +1685,7 @@
       <c r="R6" s="41"/>
       <c r="S6" s="42"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1693,14 +1702,14 @@
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="15"/>
       <c r="J7" s="10">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K7" s="26">
         <f t="shared" si="1"/>
@@ -1713,14 +1722,16 @@
       <c r="M7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="40"/>
+      <c r="N7" s="40" t="s">
+        <v>59</v>
+      </c>
       <c r="O7" s="41"/>
       <c r="P7" s="41"/>
       <c r="Q7" s="41"/>
       <c r="R7" s="41"/>
       <c r="S7" s="42"/>
     </row>
-    <row r="8" spans="1:19" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
@@ -1757,14 +1768,14 @@
       <c r="M8" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="48"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="47"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="49"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1777,7 +1788,9 @@
       <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
       <c r="F9" s="1">
         <v>3</v>
       </c>
@@ -1786,7 +1799,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="10">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K9" s="26">
         <f t="shared" si="1"/>
@@ -1806,7 +1819,7 @@
       <c r="R9" s="41"/>
       <c r="S9" s="42"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1823,14 +1836,14 @@
         <v>5</v>
       </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="15"/>
       <c r="J10" s="10">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K10" s="26">
         <f t="shared" si="1"/>
@@ -1843,14 +1856,16 @@
       <c r="M10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="40"/>
+      <c r="N10" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="O10" s="41"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="41"/>
       <c r="R10" s="41"/>
       <c r="S10" s="42"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1864,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
@@ -1874,7 +1889,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="10">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K11" s="26">
         <f t="shared" si="1"/>
@@ -1894,7 +1909,7 @@
       <c r="R11" s="41"/>
       <c r="S11" s="42"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1936,7 +1951,7 @@
       <c r="R12" s="41"/>
       <c r="S12" s="42"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1978,7 +1993,7 @@
       <c r="R13" s="41"/>
       <c r="S13" s="42"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1992,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
@@ -2002,7 +2017,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K14" s="26">
         <f t="shared" si="1"/>
@@ -2022,7 +2037,7 @@
       <c r="R14" s="41"/>
       <c r="S14" s="42"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -2066,7 +2081,7 @@
       <c r="R15" s="41"/>
       <c r="S15" s="42"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -2114,7 +2129,7 @@
       <c r="R16" s="41"/>
       <c r="S16" s="42"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2156,7 +2171,7 @@
       <c r="R17" s="41"/>
       <c r="S17" s="42"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2169,7 +2184,9 @@
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
       <c r="F18" s="1">
         <v>4</v>
       </c>
@@ -2178,7 +2195,7 @@
       <c r="I18" s="15"/>
       <c r="J18" s="10">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K18" s="26">
         <f t="shared" si="1"/>
@@ -2196,7 +2213,7 @@
       <c r="R18" s="41"/>
       <c r="S18" s="42"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -2209,7 +2226,9 @@
       <c r="D19" s="1">
         <v>5</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
       <c r="F19" s="1">
         <v>4</v>
       </c>
@@ -2218,7 +2237,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="10">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K19" s="26">
         <f t="shared" si="1"/>
@@ -2236,7 +2255,7 @@
       <c r="R19" s="41"/>
       <c r="S19" s="42"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -2253,14 +2272,14 @@
         <v>5</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="15"/>
       <c r="J20" s="10">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K20" s="26">
         <f t="shared" si="1"/>
@@ -2273,14 +2292,16 @@
       <c r="M20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="40"/>
+      <c r="N20" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="O20" s="41"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="41"/>
       <c r="S20" s="42"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2293,16 +2314,18 @@
       <c r="D21" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="15"/>
       <c r="J21" s="10">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K21" s="26">
         <f t="shared" si="1"/>
@@ -2315,14 +2338,16 @@
       <c r="M21" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="40"/>
+      <c r="N21" s="40" t="s">
+        <v>59</v>
+      </c>
       <c r="O21" s="41"/>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
       <c r="R21" s="41"/>
       <c r="S21" s="42"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -2333,7 +2358,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
@@ -2344,7 +2369,7 @@
       <c r="I22" s="15"/>
       <c r="J22" s="10">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K22" s="26">
         <f t="shared" si="1"/>
@@ -2364,7 +2389,7 @@
       <c r="R22" s="41"/>
       <c r="S22" s="42"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -2408,7 +2433,7 @@
       <c r="R23" s="41"/>
       <c r="S23" s="42"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -2450,7 +2475,7 @@
       <c r="R24" s="41"/>
       <c r="S24" s="42"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -2492,7 +2517,7 @@
       <c r="R25" s="41"/>
       <c r="S25" s="42"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -2509,14 +2534,14 @@
         <v>5</v>
       </c>
       <c r="F26" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="16"/>
       <c r="J26" s="7">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K26" s="26">
         <f t="shared" si="1"/>
@@ -2527,21 +2552,25 @@
         <v>2</v>
       </c>
       <c r="M26" s="29"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="45"/>
+      <c r="N26" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
     <mergeCell ref="N18:S18"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N8:S8"/>
@@ -2554,14 +2583,12 @@
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C7 M2 M4:M6 M8:M12 M26 M14:M24 C9:C26">
     <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
@@ -2712,20 +2739,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2733,7 +2760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2741,7 +2768,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2749,7 +2776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -2757,7 +2784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -2765,7 +2792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -2773,7 +2800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2781,7 +2808,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -646,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -686,9 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -698,6 +696,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -710,24 +726,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1404,7 +1402,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,14 +1458,14 @@
       <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1490,7 +1488,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="14"/>
       <c r="J2" s="10">
-        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+2.5*I2,0)</f>
+        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+3.5*I2,0)</f>
         <v>23</v>
       </c>
       <c r="K2" s="26">
@@ -1498,18 +1496,18 @@
         <v>1</v>
       </c>
       <c r="L2" s="25">
-        <f>MAX(_xlfn.FLOOR.MATH((J2-7.5)/10),2)</f>
+        <f>MAX(_xlfn.FLOOR.MATH((J2-10)/10),2)</f>
         <v>2</v>
       </c>
       <c r="M2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="46"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="50"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1534,7 +1532,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="15"/>
       <c r="J3" s="10">
-        <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+2.5*I3,0)</f>
+        <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+3.5*I3,0)</f>
         <v>30</v>
       </c>
       <c r="K3" s="26">
@@ -1542,18 +1540,18 @@
         <v>1</v>
       </c>
       <c r="L3" s="25">
-        <f t="shared" ref="L3:L26" si="2">MAX(_xlfn.FLOOR.MATH((J3-7.5)/10),2)</f>
+        <f t="shared" ref="L3:L26" si="2">MAX(_xlfn.FLOOR.MATH((J3-10)/10),2)</f>
         <v>2</v>
       </c>
       <c r="M3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="42"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1592,16 +1590,16 @@
         <v>2</v>
       </c>
       <c r="M4" s="28"/>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="42"/>
-    </row>
-    <row r="5" spans="1:19" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="40"/>
+    </row>
+    <row r="5" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
@@ -1621,27 +1619,27 @@
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="34"/>
-      <c r="J5" s="35">
+      <c r="J5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="25">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="49"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="46"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1678,12 +1676,12 @@
       <c r="M6" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="42"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="40"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1722,16 +1720,16 @@
       <c r="M7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="40" t="s">
+      <c r="N7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="42"/>
-    </row>
-    <row r="8" spans="1:19" s="39" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="40"/>
+    </row>
+    <row r="8" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
@@ -1753,27 +1751,27 @@
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
       <c r="I8" s="34"/>
-      <c r="J8" s="35">
+      <c r="J8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="25">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M8" s="38" t="s">
+      <c r="M8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="49"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="46"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1812,12 +1810,12 @@
       <c r="M9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="42"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="40"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1856,14 +1854,14 @@
       <c r="M10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="42"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="40"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1902,12 +1900,12 @@
       <c r="M11" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="42"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="40"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1944,12 +1942,12 @@
       <c r="M12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="40"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="42"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="40"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1986,12 +1984,12 @@
       <c r="M13" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="40"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="42"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="40"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -2030,12 +2028,12 @@
       <c r="M14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="40"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="42"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="40"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -2074,12 +2072,12 @@
       <c r="M15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="40"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="42"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="40"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -2116,18 +2114,18 @@
         <v>1</v>
       </c>
       <c r="L16" s="25">
-        <f>MAX(_xlfn.FLOOR.MATH((J16-5)/10),2)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M16" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="40"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="42"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="40"/>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -2164,12 +2162,12 @@
       <c r="M17" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="40"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="42"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="40"/>
     </row>
     <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -2206,12 +2204,12 @@
         <v>2</v>
       </c>
       <c r="M18" s="28"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="42"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="40"/>
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -2248,12 +2246,12 @@
         <v>2</v>
       </c>
       <c r="M19" s="28"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="42"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="40"/>
     </row>
     <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -2292,14 +2290,14 @@
       <c r="M20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="40" t="s">
+      <c r="N20" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="42"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="40"/>
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -2338,14 +2336,14 @@
       <c r="M21" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="40" t="s">
+      <c r="N21" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="42"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="40"/>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -2382,12 +2380,12 @@
       <c r="M22" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N22" s="40"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="42"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="40"/>
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -2426,12 +2424,12 @@
       <c r="M23" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="40"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="42"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="40"/>
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -2468,12 +2466,12 @@
       <c r="M24" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="40"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="42"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="40"/>
     </row>
     <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -2510,12 +2508,12 @@
       <c r="M25" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N25" s="40"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="42"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="40"/>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -2539,7 +2537,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="16"/>
-      <c r="J26" s="7">
+      <c r="J26" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -2552,25 +2550,23 @@
         <v>2</v>
       </c>
       <c r="M26" s="29"/>
-      <c r="N26" s="50" t="s">
+      <c r="N26" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="52"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
     <mergeCell ref="N18:S18"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N8:S8"/>
@@ -2583,12 +2579,14 @@
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C7 M2 M4:M6 M8:M12 M26 M14:M24 C9:C26">
     <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -698,13 +698,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,16 +719,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1402,7 +1402,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,14 +1458,14 @@
       <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1502,12 +1502,12 @@
       <c r="M2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="44"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1634,12 +1634,12 @@
       <c r="M5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="46"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="47"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1766,12 +1766,12 @@
       <c r="M8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="46"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="47"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -2534,7 +2534,9 @@
       <c r="F26" s="13">
         <v>5</v>
       </c>
-      <c r="G26" s="13"/>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
       <c r="H26" s="13"/>
       <c r="I26" s="16"/>
       <c r="J26" s="10">
@@ -2550,23 +2552,25 @@
         <v>2</v>
       </c>
       <c r="M26" s="29"/>
-      <c r="N26" s="41" t="s">
+      <c r="N26" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="43"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
     <mergeCell ref="N18:S18"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N8:S8"/>
@@ -2579,14 +2583,12 @@
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C7 M2 M4:M6 M8:M12 M26 M14:M24 C9:C26">
     <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -698,16 +698,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,13 +716,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1402,7 +1402,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,14 +1458,14 @@
       <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1502,12 +1502,12 @@
       <c r="M2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="44"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="50"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1573,13 +1573,15 @@
         <v>4</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
       <c r="I4" s="15"/>
       <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="K4" s="26">
         <f t="shared" si="1"/>
@@ -1587,7 +1589,7 @@
       </c>
       <c r="L4" s="25">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4" s="28"/>
       <c r="N4" s="38" t="s">
@@ -1634,12 +1636,12 @@
       <c r="M5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="47"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="46"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1702,7 +1704,9 @@
       <c r="F7" s="1">
         <v>4</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="15"/>
       <c r="J7" s="10">
@@ -1766,12 +1770,12 @@
       <c r="M8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="47"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="46"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1792,7 +1796,9 @@
       <c r="F9" s="1">
         <v>3</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="15"/>
       <c r="J9" s="10">
@@ -1836,7 +1842,9 @@
       <c r="F10" s="1">
         <v>4</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="15"/>
       <c r="J10" s="10">
@@ -2444,7 +2452,9 @@
       <c r="D24" s="1">
         <v>5</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
       <c r="F24" s="1">
         <v>5</v>
       </c>
@@ -2453,7 +2463,7 @@
       <c r="I24" s="15"/>
       <c r="J24" s="10">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K24" s="26">
         <f t="shared" si="1"/>
@@ -2486,7 +2496,9 @@
       <c r="D25" s="1">
         <v>5</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
       <c r="F25" s="1">
         <v>3</v>
       </c>
@@ -2495,7 +2507,7 @@
       <c r="I25" s="15"/>
       <c r="J25" s="10">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K25" s="26">
         <f t="shared" si="1"/>
@@ -2552,25 +2564,23 @@
         <v>2</v>
       </c>
       <c r="M26" s="29"/>
-      <c r="N26" s="48" t="s">
+      <c r="N26" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="50"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
     <mergeCell ref="N18:S18"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N8:S8"/>
@@ -2583,12 +2593,14 @@
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C7 M2 M4:M6 M8:M12 M26 M14:M24 C9:C26">
     <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -698,13 +698,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,16 +719,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1402,7 +1402,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,14 +1458,14 @@
       <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1502,12 +1502,12 @@
       <c r="M2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="44"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1636,12 +1636,12 @@
       <c r="M5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="46"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="47"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1770,12 +1770,12 @@
       <c r="M8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="46"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="47"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1797,13 +1797,13 @@
         <v>3</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="15"/>
       <c r="J9" s="10">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K9" s="26">
         <f t="shared" si="1"/>
@@ -2564,23 +2564,25 @@
         <v>2</v>
       </c>
       <c r="M26" s="29"/>
-      <c r="N26" s="41" t="s">
+      <c r="N26" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="43"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
     <mergeCell ref="N18:S18"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N8:S8"/>
@@ -2593,14 +2595,12 @@
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C7 M2 M4:M6 M8:M12 M26 M14:M24 C9:C26">
     <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D6163E-938C-4334-9710-D02F8C60677B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -214,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -698,16 +699,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,13 +717,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1398,27 +1399,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="69.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1458,16 +1459,16 @@
       <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1502,14 +1503,14 @@
       <c r="M2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="44"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="48"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="50"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
@@ -1533,7 +1534,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="10">
         <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+3.5*I3,0)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="26">
         <f t="shared" ref="K3:K26" si="1">IF(J3&gt;57.5/5,1,0)</f>
@@ -1553,7 +1554,7 @@
       <c r="R3" s="39"/>
       <c r="S3" s="40"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1601,7 +1602,7 @@
       <c r="R4" s="39"/>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
@@ -1636,14 +1637,14 @@
       <c r="M5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="47"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="46"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1685,7 +1686,7 @@
       <c r="R6" s="39"/>
       <c r="S6" s="40"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1733,7 +1734,7 @@
       <c r="R7" s="39"/>
       <c r="S7" s="40"/>
     </row>
-    <row r="8" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
@@ -1770,14 +1771,14 @@
       <c r="M8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="47"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="46"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1823,7 +1824,7 @@
       <c r="R9" s="39"/>
       <c r="S9" s="40"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1871,7 +1872,7 @@
       <c r="R10" s="39"/>
       <c r="S10" s="40"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1890,7 +1891,9 @@
       <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="15"/>
       <c r="J11" s="10">
@@ -1915,7 +1918,7 @@
       <c r="R11" s="39"/>
       <c r="S11" s="40"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1957,7 +1960,7 @@
       <c r="R12" s="39"/>
       <c r="S12" s="40"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1999,7 +2002,7 @@
       <c r="R13" s="39"/>
       <c r="S13" s="40"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -2043,7 +2046,7 @@
       <c r="R14" s="39"/>
       <c r="S14" s="40"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -2087,7 +2090,7 @@
       <c r="R15" s="39"/>
       <c r="S15" s="40"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -2135,7 +2138,7 @@
       <c r="R16" s="39"/>
       <c r="S16" s="40"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2177,7 +2180,7 @@
       <c r="R17" s="39"/>
       <c r="S17" s="40"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2219,7 +2222,7 @@
       <c r="R18" s="39"/>
       <c r="S18" s="40"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -2261,7 +2264,7 @@
       <c r="R19" s="39"/>
       <c r="S19" s="40"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -2307,7 +2310,7 @@
       <c r="R20" s="39"/>
       <c r="S20" s="40"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2353,7 +2356,7 @@
       <c r="R21" s="39"/>
       <c r="S21" s="40"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -2395,7 +2398,7 @@
       <c r="R22" s="39"/>
       <c r="S22" s="40"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -2439,7 +2442,7 @@
       <c r="R23" s="39"/>
       <c r="S23" s="40"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -2483,7 +2486,7 @@
       <c r="R24" s="39"/>
       <c r="S24" s="40"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -2527,7 +2530,7 @@
       <c r="R25" s="39"/>
       <c r="S25" s="40"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -2549,7 +2552,9 @@
       <c r="G26" s="13">
         <v>0</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
       <c r="I26" s="16"/>
       <c r="J26" s="10">
         <f t="shared" si="0"/>
@@ -2564,25 +2569,23 @@
         <v>2</v>
       </c>
       <c r="M26" s="29"/>
-      <c r="N26" s="48" t="s">
+      <c r="N26" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="50"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
     <mergeCell ref="N18:S18"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N8:S8"/>
@@ -2595,12 +2598,14 @@
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C7 M2 M4:M6 M8:M12 M26 M14:M24 C9:C26">
     <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
@@ -2751,20 +2756,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2772,7 +2777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2780,7 +2785,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2788,7 +2793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -2796,7 +2801,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -2804,7 +2809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -2812,7 +2817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2820,7 +2825,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D6163E-938C-4334-9710-D02F8C60677B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -215,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -647,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -699,24 +698,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,6 +710,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1399,27 +1399,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B32" sqref="B32:K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="69.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1459,16 +1459,16 @@
       <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1503,14 +1503,14 @@
       <c r="M2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="50"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="44"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1529,9 @@
       <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="15"/>
       <c r="J3" s="10">
@@ -1554,7 +1556,7 @@
       <c r="R3" s="39"/>
       <c r="S3" s="40"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1602,7 +1604,7 @@
       <c r="R4" s="39"/>
       <c r="S4" s="40"/>
     </row>
-    <row r="5" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
@@ -1637,14 +1639,14 @@
       <c r="M5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="46"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="47"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1686,7 +1688,7 @@
       <c r="R6" s="39"/>
       <c r="S6" s="40"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1734,7 +1736,7 @@
       <c r="R7" s="39"/>
       <c r="S7" s="40"/>
     </row>
-    <row r="8" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
@@ -1771,14 +1773,14 @@
       <c r="M8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="46"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="47"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1824,7 +1826,7 @@
       <c r="R9" s="39"/>
       <c r="S9" s="40"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1844,13 +1846,13 @@
         <v>4</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="15"/>
       <c r="J10" s="10">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K10" s="26">
         <f t="shared" si="1"/>
@@ -1872,7 +1874,7 @@
       <c r="R10" s="39"/>
       <c r="S10" s="40"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1892,13 +1894,13 @@
         <v>3</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="15"/>
       <c r="J11" s="10">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K11" s="26">
         <f t="shared" si="1"/>
@@ -1918,7 +1920,7 @@
       <c r="R11" s="39"/>
       <c r="S11" s="40"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1960,7 +1962,7 @@
       <c r="R12" s="39"/>
       <c r="S12" s="40"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -2002,7 +2004,7 @@
       <c r="R13" s="39"/>
       <c r="S13" s="40"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -2046,7 +2048,7 @@
       <c r="R14" s="39"/>
       <c r="S14" s="40"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -2090,7 +2092,7 @@
       <c r="R15" s="39"/>
       <c r="S15" s="40"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -2138,7 +2140,7 @@
       <c r="R16" s="39"/>
       <c r="S16" s="40"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2180,7 +2182,7 @@
       <c r="R17" s="39"/>
       <c r="S17" s="40"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2222,7 +2224,7 @@
       <c r="R18" s="39"/>
       <c r="S18" s="40"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -2264,7 +2266,7 @@
       <c r="R19" s="39"/>
       <c r="S19" s="40"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -2283,12 +2285,14 @@
       <c r="F20" s="1">
         <v>4</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="15"/>
       <c r="J20" s="10">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K20" s="26">
         <f t="shared" si="1"/>
@@ -2310,7 +2314,7 @@
       <c r="R20" s="39"/>
       <c r="S20" s="40"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2356,7 +2360,7 @@
       <c r="R21" s="39"/>
       <c r="S21" s="40"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -2398,7 +2402,7 @@
       <c r="R22" s="39"/>
       <c r="S22" s="40"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -2442,7 +2446,7 @@
       <c r="R23" s="39"/>
       <c r="S23" s="40"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -2461,12 +2465,14 @@
       <c r="F24" s="1">
         <v>5</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="15"/>
       <c r="J24" s="10">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K24" s="26">
         <f t="shared" si="1"/>
@@ -2486,7 +2492,7 @@
       <c r="R24" s="39"/>
       <c r="S24" s="40"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -2505,12 +2511,14 @@
       <c r="F25" s="1">
         <v>3</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1">
+        <v>-1</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="15"/>
       <c r="J25" s="10">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K25" s="26">
         <f t="shared" si="1"/>
@@ -2530,7 +2538,7 @@
       <c r="R25" s="39"/>
       <c r="S25" s="40"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -2550,7 +2558,7 @@
         <v>5</v>
       </c>
       <c r="G26" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" s="13">
         <v>0</v>
@@ -2558,7 +2566,7 @@
       <c r="I26" s="16"/>
       <c r="J26" s="10">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K26" s="26">
         <f t="shared" si="1"/>
@@ -2566,26 +2574,77 @@
       </c>
       <c r="L26" s="25">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" s="29"/>
-      <c r="N26" s="41" t="s">
+      <c r="N26" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="43"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="50"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
     <mergeCell ref="N18:S18"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N8:S8"/>
@@ -2598,14 +2657,12 @@
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C7 M2 M4:M6 M8:M12 M26 M14:M24 C9:C26">
     <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
@@ -2756,20 +2813,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2777,7 +2834,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2785,7 +2842,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2793,7 +2850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -2801,7 +2858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -2809,7 +2866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -2817,7 +2874,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2825,7 +2882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -689,6 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,6 +697,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -710,25 +729,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1403,7 +1403,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:K35"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,14 +1459,14 @@
       <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1489,7 +1489,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="14"/>
       <c r="J2" s="10">
-        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+3.5*I2,0)</f>
+        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+4*I2,0)</f>
         <v>23</v>
       </c>
       <c r="K2" s="26">
@@ -1503,12 +1503,12 @@
       <c r="M2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="44"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="51"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1535,7 +1535,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="15"/>
       <c r="J3" s="10">
-        <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+3.5*I3,0)</f>
+        <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+4*I3,0)</f>
         <v>31</v>
       </c>
       <c r="K3" s="26">
@@ -1549,12 +1549,12 @@
       <c r="M3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="41"/>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1595,14 +1595,14 @@
         <v>3</v>
       </c>
       <c r="M4" s="28"/>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="41"/>
     </row>
     <row r="5" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
@@ -1681,12 +1681,12 @@
       <c r="M6" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="38"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="40"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="41"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1727,14 +1727,14 @@
       <c r="M7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="41"/>
     </row>
     <row r="8" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
@@ -1819,12 +1819,12 @@
       <c r="M9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="38"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="40"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="41"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1865,14 +1865,14 @@
       <c r="M10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="41"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1913,12 +1913,12 @@
       <c r="M11" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="40"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="41"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1955,12 +1955,12 @@
       <c r="M12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="40"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="41"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1997,12 +1997,12 @@
       <c r="M13" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="38"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="40"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="41"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -2041,12 +2041,12 @@
       <c r="M14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="38"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="40"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="41"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -2085,12 +2085,12 @@
       <c r="M15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="40"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="41"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -2133,12 +2133,12 @@
       <c r="M16" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="38"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="40"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="41"/>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -2175,12 +2175,12 @@
       <c r="M17" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="38"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="40"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="41"/>
     </row>
     <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -2217,12 +2217,12 @@
         <v>2</v>
       </c>
       <c r="M18" s="28"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="40"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="41"/>
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -2259,12 +2259,12 @@
         <v>2</v>
       </c>
       <c r="M19" s="28"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="40"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="41"/>
     </row>
     <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -2305,14 +2305,14 @@
       <c r="M20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="38" t="s">
+      <c r="N20" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="41"/>
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -2351,14 +2351,14 @@
       <c r="M21" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="38" t="s">
+      <c r="N21" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="41"/>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -2395,12 +2395,12 @@
       <c r="M22" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="40"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="41"/>
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -2439,12 +2439,12 @@
       <c r="M23" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="38"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="40"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="41"/>
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -2485,12 +2485,12 @@
       <c r="M24" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="38"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="40"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="41"/>
     </row>
     <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -2531,12 +2531,12 @@
       <c r="M25" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N25" s="38"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="40"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="41"/>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -2577,74 +2577,72 @@
         <v>3</v>
       </c>
       <c r="M26" s="29"/>
-      <c r="N26" s="48" t="s">
+      <c r="N26" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="50"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="44"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
     <mergeCell ref="N18:S18"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N8:S8"/>
@@ -2657,12 +2655,14 @@
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C7 M2 M4:M6 M8:M12 M26 M14:M24 C9:C26">
     <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEBC087-7468-40FB-84CB-418B68436553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -214,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,13 +700,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,16 +721,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1399,27 +1400,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="69.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1459,16 +1460,16 @@
       <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1503,14 +1504,14 @@
       <c r="M2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="51"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="45"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1557,7 @@
       <c r="R3" s="40"/>
       <c r="S3" s="41"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1604,7 +1605,7 @@
       <c r="R4" s="40"/>
       <c r="S4" s="41"/>
     </row>
-    <row r="5" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
@@ -1639,14 +1640,14 @@
       <c r="M5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="47"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="48"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1688,7 +1689,7 @@
       <c r="R6" s="40"/>
       <c r="S6" s="41"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1736,7 +1737,7 @@
       <c r="R7" s="40"/>
       <c r="S7" s="41"/>
     </row>
-    <row r="8" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
@@ -1773,14 +1774,14 @@
       <c r="M8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="47"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="46"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="48"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1826,7 +1827,7 @@
       <c r="R9" s="40"/>
       <c r="S9" s="41"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1874,7 +1875,7 @@
       <c r="R10" s="40"/>
       <c r="S10" s="41"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1920,7 +1921,7 @@
       <c r="R11" s="40"/>
       <c r="S11" s="41"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1962,7 +1963,7 @@
       <c r="R12" s="40"/>
       <c r="S12" s="41"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -2004,7 +2005,7 @@
       <c r="R13" s="40"/>
       <c r="S13" s="41"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -2048,7 +2049,7 @@
       <c r="R14" s="40"/>
       <c r="S14" s="41"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -2092,7 +2093,7 @@
       <c r="R15" s="40"/>
       <c r="S15" s="41"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -2140,7 +2141,7 @@
       <c r="R16" s="40"/>
       <c r="S16" s="41"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2182,7 +2183,7 @@
       <c r="R17" s="40"/>
       <c r="S17" s="41"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2224,7 +2225,7 @@
       <c r="R18" s="40"/>
       <c r="S18" s="41"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -2266,7 +2267,7 @@
       <c r="R19" s="40"/>
       <c r="S19" s="41"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -2314,7 +2315,7 @@
       <c r="R20" s="40"/>
       <c r="S20" s="41"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2333,12 +2334,14 @@
       <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1">
+        <v>-1</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="15"/>
       <c r="J21" s="10">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K21" s="26">
         <f t="shared" si="1"/>
@@ -2360,7 +2363,7 @@
       <c r="R21" s="40"/>
       <c r="S21" s="41"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -2402,7 +2405,7 @@
       <c r="R22" s="40"/>
       <c r="S22" s="41"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -2421,7 +2424,9 @@
       <c r="F23" s="1">
         <v>4</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="15"/>
       <c r="J23" s="10">
@@ -2446,7 +2451,7 @@
       <c r="R23" s="40"/>
       <c r="S23" s="41"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -2492,7 +2497,7 @@
       <c r="R24" s="40"/>
       <c r="S24" s="41"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -2538,7 +2543,7 @@
       <c r="R25" s="40"/>
       <c r="S25" s="41"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -2577,16 +2582,16 @@
         <v>3</v>
       </c>
       <c r="M26" s="29"/>
-      <c r="N26" s="42" t="s">
+      <c r="N26" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="44"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="51"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -2599,7 +2604,7 @@
       <c r="K32" s="38"/>
       <c r="L32" s="38"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
@@ -2611,7 +2616,7 @@
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -2623,7 +2628,7 @@
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
@@ -2637,12 +2642,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
     <mergeCell ref="N18:S18"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N8:S8"/>
@@ -2655,14 +2662,12 @@
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C7 M2 M4:M6 M8:M12 M26 M14:M24 C9:C26">
     <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
@@ -2813,20 +2818,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2834,7 +2839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2842,7 +2847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2850,7 +2855,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -2858,7 +2863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -2866,7 +2871,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -2874,7 +2879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2882,7 +2887,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEBC087-7468-40FB-84CB-418B68436553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2512E5BA-BE9C-4343-AC66-856F75F7E657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1404,7 +1404,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1849,7 +1849,9 @@
       <c r="G10" s="1">
         <v>5</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
       <c r="I10" s="15"/>
       <c r="J10" s="10">
         <f t="shared" si="0"/>
@@ -2024,12 +2026,14 @@
       <c r="F14" s="1">
         <v>3</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1">
+        <v>-1</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="15"/>
       <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="26">
         <f t="shared" si="1"/>
@@ -2068,12 +2072,14 @@
       <c r="F15" s="1">
         <v>5</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1">
+        <v>-1</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="15"/>
       <c r="J15" s="10">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" s="26">
         <f t="shared" si="1"/>
@@ -2202,12 +2208,14 @@
       <c r="F18" s="1">
         <v>4</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1">
+        <v>-1</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="15"/>
       <c r="J18" s="10">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18" s="26">
         <f t="shared" si="1"/>
@@ -2244,12 +2252,14 @@
       <c r="F19" s="1">
         <v>4</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1">
+        <v>-1</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="15"/>
       <c r="J19" s="10">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19" s="26">
         <f t="shared" si="1"/>
@@ -2473,7 +2483,9 @@
       <c r="G24" s="1">
         <v>5</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
       <c r="I24" s="15"/>
       <c r="J24" s="10">
         <f t="shared" si="0"/>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2512E5BA-BE9C-4343-AC66-856F75F7E657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Ардаширова Амина Рифовна</t>
   </si>
@@ -210,18 +209,38 @@
   </si>
   <si>
     <t>деление на 0 не обработано</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
+  <si>
+    <t>temp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -643,20 +662,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -682,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -700,6 +781,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -712,24 +811,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1400,27 +1488,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="69.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1460,16 +1548,16 @@
       <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1482,7 +1570,9 @@
       <c r="D2" s="11">
         <v>5</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11">
+        <v>3</v>
+      </c>
       <c r="F2" s="11">
         <v>3</v>
       </c>
@@ -1491,7 +1581,7 @@
       <c r="I2" s="14"/>
       <c r="J2" s="10">
         <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+4*I2,0)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K2" s="26">
         <f>IF(J2&gt;57.5/5,1,0)</f>
@@ -1504,14 +1594,14 @@
       <c r="M2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="51"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1531,13 +1621,13 @@
         <v>4</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="15"/>
       <c r="J3" s="10">
         <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+4*I3,0)</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K3" s="26">
         <f t="shared" ref="K3:K26" si="1">IF(J3&gt;57.5/5,1,0)</f>
@@ -1557,7 +1647,7 @@
       <c r="R3" s="40"/>
       <c r="S3" s="41"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1605,7 +1695,7 @@
       <c r="R4" s="40"/>
       <c r="S4" s="41"/>
     </row>
-    <row r="5" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
@@ -1640,14 +1730,14 @@
       <c r="M5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="48"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="47"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1689,7 +1779,7 @@
       <c r="R6" s="40"/>
       <c r="S6" s="41"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1709,13 +1799,13 @@
         <v>4</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="15"/>
       <c r="J7" s="10">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K7" s="26">
         <f t="shared" si="1"/>
@@ -1737,7 +1827,7 @@
       <c r="R7" s="40"/>
       <c r="S7" s="41"/>
     </row>
-    <row r="8" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
@@ -1774,14 +1864,14 @@
       <c r="M8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="48"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="45"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="47"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1827,7 +1917,7 @@
       <c r="R9" s="40"/>
       <c r="S9" s="41"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1877,7 +1967,7 @@
       <c r="R10" s="40"/>
       <c r="S10" s="41"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1923,7 +2013,7 @@
       <c r="R11" s="40"/>
       <c r="S11" s="41"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1936,7 +2026,9 @@
       <c r="D12" s="1">
         <v>4</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
       <c r="F12" s="1">
         <v>3</v>
       </c>
@@ -1945,7 +2037,7 @@
       <c r="I12" s="15"/>
       <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K12" s="26">
         <f t="shared" si="1"/>
@@ -1965,7 +2057,7 @@
       <c r="R12" s="40"/>
       <c r="S12" s="41"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -2007,7 +2099,7 @@
       <c r="R13" s="40"/>
       <c r="S13" s="41"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -2027,13 +2119,15 @@
         <v>3</v>
       </c>
       <c r="G14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
       <c r="I14" s="15"/>
       <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K14" s="26">
         <f t="shared" si="1"/>
@@ -2053,7 +2147,7 @@
       <c r="R14" s="40"/>
       <c r="S14" s="41"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -2099,7 +2193,7 @@
       <c r="R15" s="40"/>
       <c r="S15" s="41"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -2147,7 +2241,7 @@
       <c r="R16" s="40"/>
       <c r="S16" s="41"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2189,7 +2283,7 @@
       <c r="R17" s="40"/>
       <c r="S17" s="41"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2209,13 +2303,13 @@
         <v>4</v>
       </c>
       <c r="G18" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="15"/>
       <c r="J18" s="10">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K18" s="26">
         <f t="shared" si="1"/>
@@ -2233,7 +2327,7 @@
       <c r="R18" s="40"/>
       <c r="S18" s="41"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -2277,7 +2371,7 @@
       <c r="R19" s="40"/>
       <c r="S19" s="41"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -2325,7 +2419,7 @@
       <c r="R20" s="40"/>
       <c r="S20" s="41"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2345,13 +2439,13 @@
         <v>3</v>
       </c>
       <c r="G21" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="15"/>
       <c r="J21" s="10">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K21" s="26">
         <f t="shared" si="1"/>
@@ -2373,7 +2467,7 @@
       <c r="R21" s="40"/>
       <c r="S21" s="41"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -2415,7 +2509,7 @@
       <c r="R22" s="40"/>
       <c r="S22" s="41"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -2435,13 +2529,13 @@
         <v>4</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="15"/>
       <c r="J23" s="10">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K23" s="26">
         <f t="shared" si="1"/>
@@ -2461,7 +2555,7 @@
       <c r="R23" s="40"/>
       <c r="S23" s="41"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -2509,7 +2603,7 @@
       <c r="R24" s="40"/>
       <c r="S24" s="41"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -2529,13 +2623,13 @@
         <v>3</v>
       </c>
       <c r="G25" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="15"/>
       <c r="J25" s="10">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K25" s="26">
         <f t="shared" si="1"/>
@@ -2555,7 +2649,7 @@
       <c r="R25" s="40"/>
       <c r="S25" s="41"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -2594,17 +2688,74 @@
         <v>3</v>
       </c>
       <c r="M26" s="29"/>
-      <c r="N26" s="49" t="s">
+      <c r="N26" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="51"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="38"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="44"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="58">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31" s="58">
+        <v>7</v>
+      </c>
+      <c r="E31" s="58">
+        <v>5</v>
+      </c>
+      <c r="F31" s="58">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="53">
+        <v>4</v>
+      </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
@@ -2616,8 +2767,13 @@
       <c r="K32" s="38"/>
       <c r="L32" s="38"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="38"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="55">
+        <v>5</v>
+      </c>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
@@ -2628,8 +2784,13 @@
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="38"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="55">
+        <v>5</v>
+      </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -2640,8 +2801,13 @@
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="38"/>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="57">
+        <v>7</v>
+      </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
@@ -2654,14 +2820,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
     <mergeCell ref="N18:S18"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N8:S8"/>
@@ -2674,12 +2838,14 @@
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C7 M2 M4:M6 M8:M12 M26 M14:M24 C9:C26">
     <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
@@ -2830,20 +2996,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2851,7 +3017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2859,7 +3025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2867,7 +3033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -2875,7 +3041,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -2883,7 +3049,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -2891,7 +3057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2899,7 +3065,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B420721-6BA2-4C5F-9FBC-1C0BBF2EA8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>Ардаширова Амина Рифовна</t>
   </si>
@@ -209,24 +210,12 @@
   </si>
   <si>
     <t>деление на 0 не обработано</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>gap</t>
-  </si>
-  <si>
-    <t>temp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -663,17 +652,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -681,44 +659,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -728,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -772,6 +712,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,13 +754,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1488,27 +1424,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="69.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1548,16 +1484,16 @@
       <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1577,7 +1513,9 @@
         <v>3</v>
       </c>
       <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
       <c r="I2" s="14"/>
       <c r="J2" s="10">
         <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+4*I2,0)</f>
@@ -1594,14 +1532,14 @@
       <c r="M2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="51"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="54"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1561,9 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
       <c r="I3" s="15"/>
       <c r="J3" s="10">
         <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+4*I3,0)</f>
@@ -1640,14 +1580,14 @@
       <c r="M3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="41"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="42"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="44"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1686,16 +1626,16 @@
         <v>3</v>
       </c>
       <c r="M4" s="28"/>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="41"/>
-    </row>
-    <row r="5" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="44"/>
+    </row>
+    <row r="5" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
@@ -1730,14 +1670,14 @@
       <c r="M5" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="47"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="50"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1772,14 +1712,14 @@
       <c r="M6" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="41"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="42"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="44"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1818,16 +1758,16 @@
       <c r="M7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="41"/>
-    </row>
-    <row r="8" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="44"/>
+    </row>
+    <row r="8" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
@@ -1864,14 +1804,14 @@
       <c r="M8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="47"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="48"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="50"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1910,14 +1850,14 @@
       <c r="M9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="41"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="44"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1958,16 +1898,16 @@
       <c r="M10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="41"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="44"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2006,14 +1946,14 @@
       <c r="M11" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="41"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="42"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="44"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -2034,10 +1974,12 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="15"/>
+      <c r="I12" s="15">
+        <v>3</v>
+      </c>
       <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K12" s="26">
         <f t="shared" si="1"/>
@@ -2050,14 +1992,14 @@
       <c r="M12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="41"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="42"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="44"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -2092,14 +2034,14 @@
       <c r="M13" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="41"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="42"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="44"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -2140,14 +2082,14 @@
       <c r="M14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="41"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="42"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="44"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -2186,14 +2128,14 @@
       <c r="M15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="41"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="42"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="44"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -2234,14 +2176,14 @@
       <c r="M16" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="41"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="42"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="44"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2254,16 +2196,20 @@
       <c r="D17" s="1">
         <v>5</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>-2</v>
+      </c>
       <c r="F17" s="1">
         <v>5</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1">
+        <v>-1</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="15"/>
       <c r="J17" s="10">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K17" s="26">
         <f t="shared" si="1"/>
@@ -2276,14 +2222,14 @@
       <c r="M17" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="41"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="42"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="44"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2305,7 +2251,9 @@
       <c r="G18" s="1">
         <v>4</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
       <c r="I18" s="15"/>
       <c r="J18" s="10">
         <f t="shared" si="0"/>
@@ -2320,14 +2268,14 @@
         <v>2</v>
       </c>
       <c r="M18" s="28"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="41"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="42"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="44"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -2349,7 +2297,9 @@
       <c r="G19" s="1">
         <v>-1</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
       <c r="I19" s="15"/>
       <c r="J19" s="10">
         <f t="shared" si="0"/>
@@ -2364,14 +2314,14 @@
         <v>2</v>
       </c>
       <c r="M19" s="28"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="41"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="42"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -2393,7 +2343,9 @@
       <c r="G20" s="1">
         <v>5</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
       <c r="I20" s="15"/>
       <c r="J20" s="10">
         <f t="shared" si="0"/>
@@ -2410,16 +2362,16 @@
       <c r="M20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="39" t="s">
+      <c r="N20" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="41"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="44"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2458,16 +2410,16 @@
       <c r="M21" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="39" t="s">
+      <c r="N21" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="41"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="44"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -2502,14 +2454,14 @@
       <c r="M22" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N22" s="39"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="41"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="42"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="44"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -2531,7 +2483,9 @@
       <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
       <c r="I23" s="15"/>
       <c r="J23" s="10">
         <f t="shared" si="0"/>
@@ -2548,14 +2502,14 @@
       <c r="M23" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="39"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="41"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="42"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="44"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -2596,14 +2550,14 @@
       <c r="M24" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="41"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="42"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="44"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -2642,14 +2596,14 @@
       <c r="M25" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N25" s="39"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="41"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="42"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="44"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -2675,87 +2629,37 @@
         <v>0</v>
       </c>
       <c r="I26" s="16"/>
-      <c r="J26" s="10">
+      <c r="J26" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="41">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M26" s="29"/>
-      <c r="N26" s="42" t="s">
+      <c r="N26" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="44"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
-      </c>
-      <c r="I30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="58">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>9</v>
-      </c>
-      <c r="D31" s="58">
-        <v>7</v>
-      </c>
-      <c r="E31" s="58">
-        <v>5</v>
-      </c>
-      <c r="F31" s="58">
-        <v>3</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="53">
-        <v>4</v>
-      </c>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="47"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
@@ -2767,13 +2671,9 @@
       <c r="K32" s="38"/>
       <c r="L32" s="38"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="55">
-        <v>5</v>
-      </c>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
@@ -2784,13 +2684,9 @@
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="55">
-        <v>5</v>
-      </c>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -2801,13 +2697,9 @@
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="57">
-        <v>7</v>
-      </c>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
@@ -2996,20 +2888,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -3017,7 +2909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3025,7 +2917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -3033,7 +2925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -3041,7 +2933,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -3049,7 +2941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -3057,7 +2949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -3065,7 +2957,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B420721-6BA2-4C5F-9FBC-1C0BBF2EA8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>Ардаширова Амина Рифовна</t>
   </si>
@@ -210,13 +209,19 @@
   </si>
   <si>
     <t>деление на 0 не обработано</t>
+  </si>
+  <si>
+    <t>Прочие примечания</t>
+  </si>
+  <si>
+    <t>хакатон (помощь с фронтом, оф. освобождение)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +238,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -668,16 +690,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -703,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -712,9 +734,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -722,24 +743,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -754,6 +757,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1424,27 +1448,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="69.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1484,16 +1508,19 @@
       <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1512,34 +1539,36 @@
       <c r="F2" s="11">
         <v>3</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="11">
+        <v>4</v>
+      </c>
       <c r="H2" s="11">
         <v>0</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="10">
-        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+4*I2,0)</f>
-        <v>26</v>
+        <f>MAX(B2+2*C2+D2+E2+G2+H2+2*F2+4.5*I2,0)</f>
+        <v>30</v>
       </c>
       <c r="K2" s="26">
         <f>IF(J2&gt;57.5/5,1,0)</f>
         <v>1</v>
       </c>
       <c r="L2" s="25">
-        <f>MAX(_xlfn.FLOOR.MATH((J2-10)/10),2)</f>
+        <f>MAX(_xlfn.FLOOR.MATH((J2-15)/10),2)</f>
         <v>2</v>
       </c>
       <c r="M2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="54"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="47"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1566,7 +1595,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="10">
-        <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+4*I3,0)</f>
+        <f t="shared" ref="J3:J26" si="0">MAX(B3+2*C3+D3+E3+G3+H3+2*F3+4.5*I3,0)</f>
         <v>36</v>
       </c>
       <c r="K3" s="26">
@@ -1574,20 +1603,20 @@
         <v>1</v>
       </c>
       <c r="L3" s="25">
-        <f t="shared" ref="L3:L26" si="2">MAX(_xlfn.FLOOR.MATH((J3-10)/10),2)</f>
+        <f t="shared" ref="L3:L26" si="2">MAX(_xlfn.FLOOR.MATH((J3-15)/10),2)</f>
         <v>2</v>
       </c>
       <c r="M3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="44"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="43"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1623,19 +1652,19 @@
       </c>
       <c r="L4" s="25">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4" s="28"/>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="44"/>
-    </row>
-    <row r="5" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="43"/>
+    </row>
+    <row r="5" spans="1:20" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
@@ -1677,7 +1706,7 @@
       <c r="R5" s="49"/>
       <c r="S5" s="50"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1695,11 +1724,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
       <c r="I6" s="15"/>
       <c r="J6" s="10">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K6" s="26">
         <f t="shared" si="1"/>
@@ -1712,14 +1743,17 @@
       <c r="M6" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N6" s="41"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="43"/>
+      <c r="T6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1758,16 +1792,16 @@
       <c r="M7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="42" t="s">
+      <c r="N7" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="44"/>
-    </row>
-    <row r="8" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
+    </row>
+    <row r="8" spans="1:20" s="37" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
@@ -1811,7 +1845,7 @@
       <c r="R8" s="49"/>
       <c r="S8" s="50"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1850,14 +1884,14 @@
       <c r="M9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="44"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N9" s="41"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="43"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1880,12 +1914,12 @@
         <v>5</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="10">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K10" s="26">
         <f t="shared" si="1"/>
@@ -1898,16 +1932,16 @@
       <c r="M10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="42" t="s">
+      <c r="N10" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="44"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="43"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1929,11 +1963,13 @@
       <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
       <c r="I11" s="15"/>
       <c r="J11" s="10">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K11" s="26">
         <f t="shared" si="1"/>
@@ -1946,14 +1982,14 @@
       <c r="M11" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="44"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N11" s="41"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1974,12 +2010,10 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="15">
-        <v>3</v>
-      </c>
+      <c r="I12" s="15"/>
       <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K12" s="26">
         <f t="shared" si="1"/>
@@ -1992,14 +2026,14 @@
       <c r="M12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="44"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="43"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -2034,14 +2068,14 @@
       <c r="M13" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="44"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N13" s="41"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="43"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -2064,12 +2098,12 @@
         <v>4</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K14" s="26">
         <f t="shared" si="1"/>
@@ -2082,14 +2116,14 @@
       <c r="M14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="44"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N14" s="41"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -2128,14 +2162,14 @@
       <c r="M15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="44"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="41"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="43"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -2171,19 +2205,19 @@
       </c>
       <c r="L16" s="25">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M16" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="44"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N16" s="41"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2222,14 +2256,14 @@
       <c r="M17" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="44"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N17" s="41"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="43"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2252,12 +2286,12 @@
         <v>4</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="10">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K18" s="26">
         <f t="shared" si="1"/>
@@ -2268,14 +2302,14 @@
         <v>2</v>
       </c>
       <c r="M18" s="28"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="44"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N18" s="41"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="43"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
@@ -2314,14 +2348,14 @@
         <v>2</v>
       </c>
       <c r="M19" s="28"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="44"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N19" s="41"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -2362,16 +2396,16 @@
       <c r="M20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="44"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="43"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -2410,16 +2444,16 @@
       <c r="M21" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="42" t="s">
+      <c r="N21" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="44"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="43"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
@@ -2454,14 +2488,14 @@
       <c r="M22" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="N22" s="42"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="44"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="41"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="43"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
@@ -2502,14 +2536,14 @@
       <c r="M23" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="42"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="44"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N23" s="41"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="43"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
@@ -2550,14 +2584,14 @@
       <c r="M24" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="44"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N24" s="41"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="43"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -2579,7 +2613,9 @@
       <c r="G25" s="1">
         <v>5</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
       <c r="I25" s="15"/>
       <c r="J25" s="10">
         <f t="shared" si="0"/>
@@ -2596,14 +2632,14 @@
       <c r="M25" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N25" s="42"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="44"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N25" s="41"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="43"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -2626,38 +2662,41 @@
         <v>5</v>
       </c>
       <c r="H26" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I26" s="16"/>
-      <c r="J26" s="7">
+      <c r="J26" s="10">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K26" s="40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="25">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M26" s="29"/>
-      <c r="N26" s="45" t="s">
+      <c r="N26" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="47"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="39"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="53"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="56"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
+      <c r="E31" s="56"/>
       <c r="F31" s="39"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G31" s="55"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="55"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
@@ -2671,7 +2710,7 @@
       <c r="K32" s="38"/>
       <c r="L32" s="38"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
@@ -2684,7 +2723,7 @@
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
@@ -2697,7 +2736,7 @@
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
@@ -2712,12 +2751,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="N24:S24"/>
     <mergeCell ref="N18:S18"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="N8:S8"/>
@@ -2730,14 +2771,12 @@
     <mergeCell ref="N15:S15"/>
     <mergeCell ref="N16:S16"/>
     <mergeCell ref="N17:S17"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N5:S5"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C7 M2 M4:M6 M8:M12 M26 M14:M24 C9:C26">
     <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
@@ -2888,20 +2927,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2909,7 +2948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2917,7 +2956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -2925,7 +2964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -2933,7 +2972,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -2941,7 +2980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -2949,7 +2988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -2957,7 +2996,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>

--- a/BBI-23-6.xlsx
+++ b/BBI-23-6.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712E288B-6740-4660-A61C-61DE42911A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лаба1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -293,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -716,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -779,7 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -792,15 +790,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -816,8 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1504,29 +1499,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.88671875" customWidth="1"/>
-    <col min="13" max="18" width="8.88671875" customWidth="1"/>
-    <col min="19" max="19" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="69.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.85546875" customWidth="1"/>
+    <col min="13" max="18" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="69.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
@@ -1548,29 +1543,29 @@
       <c r="G1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="52" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
       <c r="S1" s="21" t="s">
         <v>57</v>
       </c>
@@ -1578,7 +1573,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
@@ -1600,36 +1595,36 @@
       <c r="G2" s="1">
         <v>4</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="55">
         <v>0</v>
       </c>
-      <c r="I2" s="50">
-        <v>5</v>
-      </c>
-      <c r="J2" s="50">
+      <c r="I2" s="49">
+        <v>5</v>
+      </c>
+      <c r="J2" s="49">
         <f>MAX(((B2+D2+E2+G2+H2)*2+C2*5+F2*5)/20,0)</f>
         <v>3.35</v>
       </c>
-      <c r="K2" s="54">
+      <c r="K2" s="53">
         <f>ROUND( (I2+J2)/2-0.25,0)</f>
         <v>4</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
       <c r="S2" s="1"/>
       <c r="T2" s="23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7">
@@ -1650,35 +1645,35 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="57">
-        <v>0</v>
-      </c>
-      <c r="I3" s="50">
-        <v>5</v>
-      </c>
-      <c r="J3" s="50">
+      <c r="H3" s="55">
+        <v>5</v>
+      </c>
+      <c r="I3" s="49">
+        <v>5</v>
+      </c>
+      <c r="J3" s="49">
         <f t="shared" ref="J3:J26" si="0">MAX(((B3+D3+E3+G3+H3)*2+C3*5+F3*5)/20,0)</f>
-        <v>4</v>
-      </c>
-      <c r="K3" s="54">
+        <v>4.5</v>
+      </c>
+      <c r="K3" s="53">
         <f t="shared" ref="K3:K26" si="1">ROUND( (I3+J3)/2-0.25,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
       <c r="S3" s="1"/>
       <c r="T3" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
@@ -1700,35 +1695,35 @@
       <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="H4" s="57">
-        <v>5</v>
-      </c>
-      <c r="I4" s="50">
-        <v>5</v>
-      </c>
-      <c r="J4" s="50">
+      <c r="H4" s="55">
+        <v>5</v>
+      </c>
+      <c r="I4" s="49">
+        <v>5</v>
+      </c>
+      <c r="J4" s="49">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="53">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L4" s="12"/>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
       <c r="S4" s="1"/>
       <c r="T4" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>3</v>
       </c>
@@ -1750,35 +1745,35 @@
       <c r="G5" s="16">
         <v>2</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="56">
         <v>2</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="50">
         <v>2</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="53">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L5" s="15"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
       <c r="S5" s="16"/>
       <c r="T5" s="24"/>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="60">
+    <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="58">
         <v>-1</v>
       </c>
       <c r="C6" s="1">
@@ -1796,29 +1791,29 @@
       <c r="G6" s="1">
         <v>-2</v>
       </c>
-      <c r="H6" s="57">
-        <v>5</v>
-      </c>
-      <c r="I6" s="50">
-        <v>4</v>
-      </c>
-      <c r="J6" s="50">
+      <c r="H6" s="55">
+        <v>5</v>
+      </c>
+      <c r="I6" s="49">
+        <v>4</v>
+      </c>
+      <c r="J6" s="49">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6" s="53">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
       <c r="S6" s="1" t="s">
         <v>58</v>
       </c>
@@ -1826,7 +1821,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
         <v>5</v>
       </c>
@@ -1848,37 +1843,37 @@
       <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="55">
         <v>0</v>
       </c>
-      <c r="I7" s="50">
-        <v>5</v>
-      </c>
-      <c r="J7" s="50">
+      <c r="I7" s="49">
+        <v>5</v>
+      </c>
+      <c r="J7" s="49">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="53">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="63" t="s">
+      <c r="M7" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
       <c r="S7" s="1"/>
       <c r="T7" s="23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>6</v>
       </c>
@@ -1900,31 +1895,31 @@
       <c r="G8" s="16">
         <v>2</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="56">
         <v>2</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="50">
         <v>2</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="53">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L8" s="15"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
       <c r="S8" s="16"/>
       <c r="T8" s="24"/>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>7</v>
       </c>
@@ -1946,43 +1941,43 @@
       <c r="G9" s="1">
         <v>5</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="55">
         <v>0</v>
       </c>
-      <c r="I9" s="50">
-        <v>5</v>
-      </c>
-      <c r="J9" s="50">
+      <c r="I9" s="49">
+        <v>5</v>
+      </c>
+      <c r="J9" s="49">
         <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="53">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
       <c r="S9" s="1"/>
       <c r="T9" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="61" t="s">
+    <row r="10" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="7">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
@@ -1996,37 +1991,37 @@
       <c r="G10" s="1">
         <v>5</v>
       </c>
-      <c r="H10" s="57">
-        <v>5</v>
-      </c>
-      <c r="I10" s="50">
+      <c r="H10" s="55">
+        <v>5</v>
+      </c>
+      <c r="I10" s="49">
         <v>3</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="49">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K10" s="54">
+        <v>4.5</v>
+      </c>
+      <c r="K10" s="53">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="63" t="s">
+      <c r="M10" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
       <c r="S10" s="1"/>
       <c r="T10" s="23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>9</v>
       </c>
@@ -2048,35 +2043,35 @@
       <c r="G11" s="1">
         <v>5</v>
       </c>
-      <c r="H11" s="57">
-        <v>5</v>
-      </c>
-      <c r="I11" s="50">
+      <c r="H11" s="55">
+        <v>5</v>
+      </c>
+      <c r="I11" s="49">
         <v>3</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="49">
         <f t="shared" si="0"/>
         <v>4.05</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="53">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
       <c r="S11" s="1"/>
       <c r="T11" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>10</v>
       </c>
@@ -2084,7 +2079,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
@@ -2095,38 +2090,38 @@
       <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="G12" s="68">
-        <v>-2</v>
-      </c>
-      <c r="H12" s="67">
+      <c r="G12" s="60">
+        <v>3</v>
+      </c>
+      <c r="H12" s="59">
         <v>-1</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="49">
         <v>1</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="49">
         <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="K12" s="54">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K12" s="53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
       <c r="S12" s="1"/>
       <c r="T12" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" s="17" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>11</v>
       </c>
@@ -2148,35 +2143,35 @@
       <c r="G13" s="16">
         <v>-2</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="56">
         <v>-1</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="50">
         <v>0</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="50">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
       <c r="S13" s="16"/>
       <c r="T13" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
@@ -2198,36 +2193,36 @@
       <c r="G14" s="1">
         <v>4</v>
       </c>
-      <c r="H14" s="57">
-        <v>5</v>
-      </c>
-      <c r="I14" s="50">
-        <v>4</v>
-      </c>
-      <c r="J14" s="50">
+      <c r="H14" s="55">
+        <v>5</v>
+      </c>
+      <c r="I14" s="49">
+        <v>4</v>
+      </c>
+      <c r="J14" s="49">
         <f t="shared" si="0"/>
         <v>4.1500000000000004</v>
       </c>
-      <c r="K14" s="54">
+      <c r="K14" s="53">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
       <c r="S14" s="1"/>
       <c r="T14" s="23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="40" t="s">
+    <row r="15" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7">
@@ -2248,35 +2243,35 @@
       <c r="G15" s="1">
         <v>4</v>
       </c>
-      <c r="H15" s="57">
-        <v>0</v>
-      </c>
-      <c r="I15" s="50">
-        <v>5</v>
-      </c>
-      <c r="J15" s="50">
+      <c r="H15" s="55">
+        <v>5</v>
+      </c>
+      <c r="I15" s="49">
+        <v>5</v>
+      </c>
+      <c r="J15" s="49">
         <f t="shared" si="0"/>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="K15" s="54">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K15" s="53">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
       <c r="S15" s="1"/>
       <c r="T15" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>14</v>
       </c>
@@ -2298,35 +2293,35 @@
       <c r="G16" s="1">
         <v>5</v>
       </c>
-      <c r="H16" s="57">
-        <v>5</v>
-      </c>
-      <c r="I16" s="50">
-        <v>5</v>
-      </c>
-      <c r="J16" s="50">
+      <c r="H16" s="55">
+        <v>5</v>
+      </c>
+      <c r="I16" s="49">
+        <v>5</v>
+      </c>
+      <c r="J16" s="49">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="K16" s="54">
+      <c r="K16" s="53">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
       <c r="S16" s="1"/>
       <c r="T16" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>15</v>
       </c>
@@ -2348,35 +2343,35 @@
       <c r="G17" s="1">
         <v>-1</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="55">
         <v>-1</v>
       </c>
-      <c r="I17" s="50">
-        <v>5</v>
-      </c>
-      <c r="J17" s="50">
+      <c r="I17" s="49">
+        <v>5</v>
+      </c>
+      <c r="J17" s="49">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
-      <c r="K17" s="54">
+      <c r="K17" s="53">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
       <c r="S17" s="1"/>
       <c r="T17" s="23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>16</v>
       </c>
@@ -2398,34 +2393,34 @@
       <c r="G18" s="1">
         <v>4</v>
       </c>
-      <c r="H18" s="57">
-        <v>5</v>
-      </c>
-      <c r="I18" s="50">
-        <v>4</v>
-      </c>
-      <c r="J18" s="50">
+      <c r="H18" s="55">
+        <v>5</v>
+      </c>
+      <c r="I18" s="49">
+        <v>4</v>
+      </c>
+      <c r="J18" s="49">
         <f t="shared" si="0"/>
         <v>4.55</v>
       </c>
-      <c r="K18" s="54">
+      <c r="K18" s="53">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L18" s="12"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
       <c r="S18" s="1"/>
       <c r="T18" s="23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="61" t="s">
+    <row r="19" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="9">
@@ -2444,36 +2439,36 @@
         <v>4</v>
       </c>
       <c r="G19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H19" s="57">
-        <v>5</v>
-      </c>
-      <c r="I19" s="50">
+        <v>4</v>
+      </c>
+      <c r="H19" s="55">
+        <v>5</v>
+      </c>
+      <c r="I19" s="49">
         <v>3</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="49">
         <f t="shared" si="0"/>
-        <v>4.05</v>
-      </c>
-      <c r="K19" s="54">
+        <v>4.55</v>
+      </c>
+      <c r="K19" s="53">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19" s="12"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="63"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
       <c r="S19" s="1"/>
       <c r="T19" s="23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="7">
@@ -2494,37 +2489,37 @@
       <c r="G20" s="1">
         <v>5</v>
       </c>
-      <c r="H20" s="57">
-        <v>0</v>
-      </c>
-      <c r="I20" s="50">
-        <v>2</v>
-      </c>
-      <c r="J20" s="50">
+      <c r="H20" s="55">
+        <v>5</v>
+      </c>
+      <c r="I20" s="49">
+        <v>5</v>
+      </c>
+      <c r="J20" s="49">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K20" s="54">
+        <v>4.5</v>
+      </c>
+      <c r="K20" s="53">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="63" t="s">
+      <c r="M20" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="63"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
       <c r="S20" s="1"/>
       <c r="T20" s="23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>19</v>
       </c>
@@ -2546,38 +2541,38 @@
       <c r="G21" s="1">
         <v>4</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="55">
         <v>0</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I21" s="49">
         <v>3</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="49">
         <f t="shared" si="0"/>
         <v>3.55</v>
       </c>
-      <c r="K21" s="54">
+      <c r="K21" s="53">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="63" t="s">
+      <c r="M21" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
       <c r="S21" s="1"/>
       <c r="T21" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="7">
@@ -2590,44 +2585,44 @@
         <v>4</v>
       </c>
       <c r="E22" s="1">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1">
         <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>-2</v>
-      </c>
-      <c r="H22" s="67">
+        <v>3</v>
+      </c>
+      <c r="H22" s="59">
         <v>-1</v>
       </c>
-      <c r="I22" s="50">
+      <c r="I22" s="49">
         <v>3</v>
       </c>
-      <c r="J22" s="50">
+      <c r="J22" s="49">
         <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="K22" s="54">
+        <v>2.7</v>
+      </c>
+      <c r="K22" s="53">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
       <c r="S22" s="1"/>
       <c r="T22" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="40" t="s">
+    <row r="23" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="7">
@@ -2648,36 +2643,36 @@
       <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" s="57">
-        <v>0</v>
-      </c>
-      <c r="I23" s="50">
-        <v>5</v>
-      </c>
-      <c r="J23" s="50">
+      <c r="H23" s="55">
+        <v>5</v>
+      </c>
+      <c r="I23" s="49">
+        <v>5</v>
+      </c>
+      <c r="J23" s="49">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K23" s="54">
+        <v>4.5</v>
+      </c>
+      <c r="K23" s="53">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
       <c r="S23" s="1"/>
       <c r="T23" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="61" t="s">
+    <row r="24" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="7">
@@ -2698,35 +2693,35 @@
       <c r="G24" s="1">
         <v>5</v>
       </c>
-      <c r="H24" s="57">
-        <v>0</v>
-      </c>
-      <c r="I24" s="50">
+      <c r="H24" s="55">
+        <v>5</v>
+      </c>
+      <c r="I24" s="49">
         <v>3</v>
       </c>
-      <c r="J24" s="50">
+      <c r="J24" s="49">
         <f t="shared" si="0"/>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="K24" s="54">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K24" s="53">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
       <c r="S24" s="1"/>
       <c r="T24" s="23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
         <v>23</v>
       </c>
@@ -2748,35 +2743,35 @@
       <c r="G25" s="1">
         <v>5</v>
       </c>
-      <c r="H25" s="57">
-        <v>5</v>
-      </c>
-      <c r="I25" s="50">
-        <v>4</v>
-      </c>
-      <c r="J25" s="50">
+      <c r="H25" s="55">
+        <v>5</v>
+      </c>
+      <c r="I25" s="49">
+        <v>4</v>
+      </c>
+      <c r="J25" s="49">
         <f t="shared" si="0"/>
         <v>4.1500000000000004</v>
       </c>
-      <c r="K25" s="54">
+      <c r="K25" s="53">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
       <c r="S25" s="1"/>
       <c r="T25" s="23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>24</v>
       </c>
@@ -2798,35 +2793,35 @@
       <c r="G26" s="8">
         <v>5</v>
       </c>
-      <c r="H26" s="59">
-        <v>5</v>
-      </c>
-      <c r="I26" s="52">
-        <v>5</v>
-      </c>
-      <c r="J26" s="52">
+      <c r="H26" s="57">
+        <v>5</v>
+      </c>
+      <c r="I26" s="51">
+        <v>5</v>
+      </c>
+      <c r="J26" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K26" s="54">
+      <c r="K26" s="53">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L26" s="13"/>
-      <c r="M26" s="62" t="s">
+      <c r="M26" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
       <c r="S26" s="8"/>
       <c r="T26" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
@@ -2848,8 +2843,8 @@
       <c r="S27" s="29"/>
       <c r="T27" s="29"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="64" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="63" t="s">
         <v>84</v>
       </c>
       <c r="B28" s="30"/>
@@ -2872,8 +2867,8 @@
       <c r="S28" s="29"/>
       <c r="T28" s="29"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="63"/>
       <c r="B29" s="35">
         <v>2</v>
       </c>
@@ -2902,14 +2897,14 @@
       <c r="S29" s="29"/>
       <c r="T29" s="29"/>
     </row>
-    <row r="30" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="64" t="s">
+    <row r="30" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="36"/>
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
@@ -2926,12 +2921,12 @@
       <c r="S30" s="29"/>
       <c r="T30" s="29"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="63"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
@@ -2948,15 +2943,15 @@
       <c r="S31" s="29"/>
       <c r="T31" s="29"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="64"/>
-      <c r="B32" s="46">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="63"/>
+      <c r="B32" s="45">
         <v>2</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32" s="46">
         <v>3</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="47">
         <v>4</v>
       </c>
       <c r="F32" s="31"/>
@@ -2975,7 +2970,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="31"/>
@@ -2997,7 +2992,7 @@
       <c r="S33" s="29"/>
       <c r="T33" s="29"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="31"/>
@@ -3019,7 +3014,7 @@
       <c r="S34" s="29"/>
       <c r="T34" s="29"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
       <c r="B35" s="30"/>
       <c r="C35" s="31"/>
@@ -3041,7 +3036,7 @@
       <c r="S35" s="29"/>
       <c r="T35" s="29"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
       <c r="B36" s="30"/>
       <c r="C36" s="31"/>
@@ -3063,7 +3058,7 @@
       <c r="S36" s="29"/>
       <c r="T36" s="29"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="30"/>
       <c r="C37" s="31"/>
@@ -3085,7 +3080,7 @@
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="30"/>
       <c r="C38" s="31"/>
@@ -3107,7 +3102,7 @@
       <c r="S38" s="29"/>
       <c r="T38" s="29"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
       <c r="B39" s="30"/>
       <c r="C39" s="31"/>
@@ -3129,7 +3124,7 @@
       <c r="S39" s="29"/>
       <c r="T39" s="29"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
       <c r="B40" s="30"/>
       <c r="C40" s="31"/>
@@ -3151,7 +3146,7 @@
       <c r="S40" s="29"/>
       <c r="T40" s="29"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="29"/>
       <c r="B41" s="30"/>
       <c r="C41" s="31"/>
@@ -3173,7 +3168,7 @@
       <c r="S41" s="29"/>
       <c r="T41" s="29"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
       <c r="B42" s="30"/>
       <c r="C42" s="31"/>
@@ -3195,7 +3190,7 @@
       <c r="S42" s="29"/>
       <c r="T42" s="29"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
       <c r="B43" s="30"/>
       <c r="C43" s="31"/>
@@ -3217,7 +3212,7 @@
       <c r="S43" s="29"/>
       <c r="T43" s="29"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
       <c r="B44" s="30"/>
       <c r="C44" s="31"/>
@@ -3239,7 +3234,7 @@
       <c r="S44" s="29"/>
       <c r="T44" s="29"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="29"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
@@ -3261,7 +3256,7 @@
       <c r="S45" s="29"/>
       <c r="T45" s="29"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
@@ -3283,7 +3278,7 @@
       <c r="S46" s="29"/>
       <c r="T46" s="29"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
@@ -3305,7 +3300,7 @@
       <c r="S47" s="29"/>
       <c r="T47" s="29"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -3327,7 +3322,7 @@
       <c r="S48" s="29"/>
       <c r="T48" s="29"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -3349,7 +3344,7 @@
       <c r="S49" s="29"/>
       <c r="T49" s="29"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -3371,7 +3366,7 @@
       <c r="S50" s="29"/>
       <c r="T50" s="29"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
@@ -3393,7 +3388,7 @@
       <c r="S51" s="29"/>
       <c r="T51" s="29"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -3415,7 +3410,7 @@
       <c r="S52" s="29"/>
       <c r="T52" s="29"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="29"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
@@ -3437,7 +3432,7 @@
       <c r="S53" s="29"/>
       <c r="T53" s="29"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="29"/>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
@@ -3459,7 +3454,7 @@
       <c r="S54" s="29"/>
       <c r="T54" s="29"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="29"/>
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
@@ -3481,7 +3476,7 @@
       <c r="S55" s="29"/>
       <c r="T55" s="29"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="29"/>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
@@ -3503,7 +3498,7 @@
       <c r="S56" s="29"/>
       <c r="T56" s="29"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="29"/>
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
@@ -3525,7 +3520,7 @@
       <c r="S57" s="29"/>
       <c r="T57" s="29"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="29"/>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
@@ -3547,7 +3542,7 @@
       <c r="S58" s="29"/>
       <c r="T58" s="29"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="29"/>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
@@ -3752,20 +3747,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -3773,7 +3768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3781,7 +3776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3789,7 +3784,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -3797,7 +3792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -3805,7 +3800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -3813,7 +3808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -3821,7 +3816,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
